--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-F2r.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-F2r.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H2">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.925278248614</v>
+        <v>14.98286266666667</v>
       </c>
       <c r="N2">
-        <v>14.925278248614</v>
+        <v>44.948588</v>
       </c>
       <c r="O2">
-        <v>0.1972582955672549</v>
+        <v>0.1958132590302862</v>
       </c>
       <c r="P2">
-        <v>0.1972582955672549</v>
+        <v>0.1958132590302861</v>
       </c>
       <c r="Q2">
-        <v>2905.12292269129</v>
+        <v>2928.181593593577</v>
       </c>
       <c r="R2">
-        <v>2905.12292269129</v>
+        <v>26353.63434234219</v>
       </c>
       <c r="S2">
-        <v>0.06139540165034862</v>
+        <v>0.06061872780760529</v>
       </c>
       <c r="T2">
-        <v>0.06139540165034862</v>
+        <v>0.06061872780760526</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H3">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I3">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J3">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.2311391505007</v>
+        <v>53.32328933333334</v>
       </c>
       <c r="N3">
-        <v>53.2311391505007</v>
+        <v>159.969868</v>
       </c>
       <c r="O3">
-        <v>0.703523485795397</v>
+        <v>0.6968899935126925</v>
       </c>
       <c r="P3">
-        <v>0.703523485795397</v>
+        <v>0.6968899935126924</v>
       </c>
       <c r="Q3">
-        <v>10361.14704001916</v>
+        <v>10421.25779361955</v>
       </c>
       <c r="R3">
-        <v>10361.14704001916</v>
+        <v>93791.32014257596</v>
       </c>
       <c r="S3">
-        <v>0.218967252336088</v>
+        <v>0.2157391437014784</v>
       </c>
       <c r="T3">
-        <v>0.218967252336088</v>
+        <v>0.2157391437014783</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H4">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I4">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J4">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.50721036210791</v>
+        <v>8.209926333333334</v>
       </c>
       <c r="N4">
-        <v>7.50721036210791</v>
+        <v>24.629779</v>
       </c>
       <c r="O4">
-        <v>0.09921821863734814</v>
+        <v>0.1072967474570214</v>
       </c>
       <c r="P4">
-        <v>0.09921821863734814</v>
+        <v>0.1072967474570214</v>
       </c>
       <c r="Q4">
-        <v>1461.237006449145</v>
+        <v>1604.510146616344</v>
       </c>
       <c r="R4">
-        <v>1461.237006449145</v>
+        <v>14440.59131954709</v>
       </c>
       <c r="S4">
-        <v>0.03088104541689703</v>
+        <v>0.03321630190391014</v>
       </c>
       <c r="T4">
-        <v>0.03088104541689703</v>
+        <v>0.03321630190391014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H5">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I5">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J5">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.925278248614</v>
+        <v>14.98286266666667</v>
       </c>
       <c r="N5">
-        <v>14.925278248614</v>
+        <v>44.948588</v>
       </c>
       <c r="O5">
-        <v>0.1972582955672549</v>
+        <v>0.1958132590302862</v>
       </c>
       <c r="P5">
-        <v>0.1972582955672549</v>
+        <v>0.1958132590302861</v>
       </c>
       <c r="Q5">
-        <v>1190.549672202676</v>
+        <v>1196.040763761967</v>
       </c>
       <c r="R5">
-        <v>1190.549672202676</v>
+        <v>10764.3668738577</v>
       </c>
       <c r="S5">
-        <v>0.02516047590917772</v>
+        <v>0.02476023675031342</v>
       </c>
       <c r="T5">
-        <v>0.02516047590917772</v>
+        <v>0.02476023675031342</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H6">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I6">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J6">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.2311391505007</v>
+        <v>53.32328933333334</v>
       </c>
       <c r="N6">
-        <v>53.2311391505007</v>
+        <v>159.969868</v>
       </c>
       <c r="O6">
-        <v>0.703523485795397</v>
+        <v>0.6968899935126925</v>
       </c>
       <c r="P6">
-        <v>0.703523485795397</v>
+        <v>0.6968899935126924</v>
       </c>
       <c r="Q6">
-        <v>4246.106116814856</v>
+        <v>4256.651690629772</v>
       </c>
       <c r="R6">
-        <v>4246.106116814856</v>
+        <v>38309.86521566795</v>
       </c>
       <c r="S6">
-        <v>0.08973506368892203</v>
+        <v>0.08812049456584461</v>
       </c>
       <c r="T6">
-        <v>0.08973506368892203</v>
+        <v>0.08812049456584457</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H7">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J7">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.50721036210791</v>
+        <v>8.209926333333334</v>
       </c>
       <c r="N7">
-        <v>7.50721036210791</v>
+        <v>24.629779</v>
       </c>
       <c r="O7">
-        <v>0.09921821863734814</v>
+        <v>0.1072967474570214</v>
       </c>
       <c r="P7">
-        <v>0.09921821863734814</v>
+        <v>0.1072967474570214</v>
       </c>
       <c r="Q7">
-        <v>598.8301649648697</v>
+        <v>655.3758637857203</v>
       </c>
       <c r="R7">
-        <v>598.8301649648697</v>
+        <v>5898.382774071482</v>
       </c>
       <c r="S7">
-        <v>0.01265537448043796</v>
+        <v>0.01356748201184646</v>
       </c>
       <c r="T7">
-        <v>0.01265537448043796</v>
+        <v>0.01356748201184646</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>162.218964272126</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H8">
-        <v>162.218964272126</v>
+        <v>487.534973</v>
       </c>
       <c r="I8">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J8">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.925278248614</v>
+        <v>14.98286266666667</v>
       </c>
       <c r="N8">
-        <v>14.925278248614</v>
+        <v>44.948588</v>
       </c>
       <c r="O8">
-        <v>0.1972582955672549</v>
+        <v>0.1958132590302862</v>
       </c>
       <c r="P8">
-        <v>0.1972582955672549</v>
+        <v>0.1958132590302861</v>
       </c>
       <c r="Q8">
-        <v>2421.163178963453</v>
+        <v>2434.889848552014</v>
       </c>
       <c r="R8">
-        <v>2421.163178963453</v>
+        <v>21914.00863696812</v>
       </c>
       <c r="S8">
-        <v>0.05116764067793358</v>
+        <v>0.05040668423495397</v>
       </c>
       <c r="T8">
-        <v>0.05116764067793358</v>
+        <v>0.05040668423495396</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>162.218964272126</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H9">
-        <v>162.218964272126</v>
+        <v>487.534973</v>
       </c>
       <c r="I9">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J9">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>53.2311391505007</v>
+        <v>53.32328933333334</v>
       </c>
       <c r="N9">
-        <v>53.2311391505007</v>
+        <v>159.969868</v>
       </c>
       <c r="O9">
-        <v>0.703523485795397</v>
+        <v>0.6968899935126925</v>
       </c>
       <c r="P9">
-        <v>0.703523485795397</v>
+        <v>0.6968899935126924</v>
       </c>
       <c r="Q9">
-        <v>8635.100260019641</v>
+        <v>8665.656141799285</v>
       </c>
       <c r="R9">
-        <v>8635.100260019641</v>
+        <v>77990.90527619357</v>
       </c>
       <c r="S9">
-        <v>0.1824898508128539</v>
+        <v>0.1793949706136101</v>
       </c>
       <c r="T9">
-        <v>0.1824898508128539</v>
+        <v>0.1793949706136101</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>162.218964272126</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H10">
-        <v>162.218964272126</v>
+        <v>487.534973</v>
       </c>
       <c r="I10">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J10">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.50721036210791</v>
+        <v>8.209926333333334</v>
       </c>
       <c r="N10">
-        <v>7.50721036210791</v>
+        <v>24.629779</v>
       </c>
       <c r="O10">
-        <v>0.09921821863734814</v>
+        <v>0.1072967474570214</v>
       </c>
       <c r="P10">
-        <v>0.09921821863734814</v>
+        <v>0.1072967474570214</v>
       </c>
       <c r="Q10">
-        <v>1217.811889514117</v>
+        <v>1334.208737751218</v>
       </c>
       <c r="R10">
-        <v>1217.811889514117</v>
+        <v>12007.87863976097</v>
       </c>
       <c r="S10">
-        <v>0.02573662185076303</v>
+        <v>0.02762056714283662</v>
       </c>
       <c r="T10">
-        <v>0.02573662185076303</v>
+        <v>0.02762056714283662</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>158.632386490809</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H11">
-        <v>158.632386490809</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I11">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J11">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.925278248614</v>
+        <v>14.98286266666667</v>
       </c>
       <c r="N11">
-        <v>14.925278248614</v>
+        <v>44.948588</v>
       </c>
       <c r="O11">
-        <v>0.1972582955672549</v>
+        <v>0.1958132590302862</v>
       </c>
       <c r="P11">
-        <v>0.1972582955672549</v>
+        <v>0.1958132590302861</v>
       </c>
       <c r="Q11">
-        <v>2367.632507617001</v>
+        <v>2394.127227660991</v>
       </c>
       <c r="R11">
-        <v>2367.632507617001</v>
+        <v>21547.14504894891</v>
       </c>
       <c r="S11">
-        <v>0.05003635048630078</v>
+        <v>0.04956282324425462</v>
       </c>
       <c r="T11">
-        <v>0.05003635048630078</v>
+        <v>0.04956282324425459</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>158.632386490809</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H12">
-        <v>158.632386490809</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I12">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J12">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.2311391505007</v>
+        <v>53.32328933333334</v>
       </c>
       <c r="N12">
-        <v>53.2311391505007</v>
+        <v>159.969868</v>
       </c>
       <c r="O12">
-        <v>0.703523485795397</v>
+        <v>0.6968899935126925</v>
       </c>
       <c r="P12">
-        <v>0.703523485795397</v>
+        <v>0.6968899935126924</v>
       </c>
       <c r="Q12">
-        <v>8444.182639068262</v>
+        <v>8520.583929891962</v>
       </c>
       <c r="R12">
-        <v>8444.182639068262</v>
+        <v>76685.25536902765</v>
       </c>
       <c r="S12">
-        <v>0.1784550941666256</v>
+        <v>0.1763917098372644</v>
       </c>
       <c r="T12">
-        <v>0.1784550941666256</v>
+        <v>0.1763917098372643</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>158.632386490809</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H13">
-        <v>158.632386490809</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I13">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J13">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.50721036210791</v>
+        <v>8.209926333333334</v>
       </c>
       <c r="N13">
-        <v>7.50721036210791</v>
+        <v>24.629779</v>
       </c>
       <c r="O13">
-        <v>0.09921821863734814</v>
+        <v>0.1072967474570214</v>
       </c>
       <c r="P13">
-        <v>0.09921821863734814</v>
+        <v>0.1072967474570214</v>
       </c>
       <c r="Q13">
-        <v>1190.886695629708</v>
+        <v>1311.872678073289</v>
       </c>
       <c r="R13">
-        <v>1190.886695629708</v>
+        <v>11806.8541026596</v>
       </c>
       <c r="S13">
-        <v>0.02516759839219096</v>
+        <v>0.02715816975434365</v>
       </c>
       <c r="T13">
-        <v>0.02516759839219096</v>
+        <v>0.02715816975434365</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.1132697218668</v>
+        <v>33.73857866666666</v>
       </c>
       <c r="H14">
-        <v>30.1132697218668</v>
+        <v>101.215736</v>
       </c>
       <c r="I14">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173843</v>
       </c>
       <c r="J14">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173842</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.925278248614</v>
+        <v>14.98286266666667</v>
       </c>
       <c r="N14">
-        <v>14.925278248614</v>
+        <v>44.948588</v>
       </c>
       <c r="O14">
-        <v>0.1972582955672549</v>
+        <v>0.1958132590302862</v>
       </c>
       <c r="P14">
-        <v>0.1972582955672549</v>
+        <v>0.1958132590302861</v>
       </c>
       <c r="Q14">
-        <v>449.4489295744251</v>
+        <v>505.5004907311964</v>
       </c>
       <c r="R14">
-        <v>449.4489295744251</v>
+        <v>4549.504416580768</v>
       </c>
       <c r="S14">
-        <v>0.009498426843494133</v>
+        <v>0.01046478699315887</v>
       </c>
       <c r="T14">
-        <v>0.009498426843494133</v>
+        <v>0.01046478699315887</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.1132697218668</v>
+        <v>33.73857866666666</v>
       </c>
       <c r="H15">
-        <v>30.1132697218668</v>
+        <v>101.215736</v>
       </c>
       <c r="I15">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173843</v>
       </c>
       <c r="J15">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173842</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>53.2311391505007</v>
+        <v>53.32328933333334</v>
       </c>
       <c r="N15">
-        <v>53.2311391505007</v>
+        <v>159.969868</v>
       </c>
       <c r="O15">
-        <v>0.703523485795397</v>
+        <v>0.6968899935126925</v>
       </c>
       <c r="P15">
-        <v>0.703523485795397</v>
+        <v>0.6968899935126924</v>
       </c>
       <c r="Q15">
-        <v>1602.963650841251</v>
+        <v>1799.051991938094</v>
       </c>
       <c r="R15">
-        <v>1602.963650841251</v>
+        <v>16191.46792744285</v>
       </c>
       <c r="S15">
-        <v>0.03387622479090732</v>
+        <v>0.03724367479449504</v>
       </c>
       <c r="T15">
-        <v>0.03387622479090732</v>
+        <v>0.03724367479449504</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>30.1132697218668</v>
+        <v>33.73857866666666</v>
       </c>
       <c r="H16">
-        <v>30.1132697218668</v>
+        <v>101.215736</v>
       </c>
       <c r="I16">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173843</v>
       </c>
       <c r="J16">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173842</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.50721036210791</v>
+        <v>8.209926333333334</v>
       </c>
       <c r="N16">
-        <v>7.50721036210791</v>
+        <v>24.629779</v>
       </c>
       <c r="O16">
-        <v>0.09921821863734814</v>
+        <v>0.1072967474570214</v>
       </c>
       <c r="P16">
-        <v>0.09921821863734814</v>
+        <v>0.1072967474570214</v>
       </c>
       <c r="Q16">
-        <v>226.0666504929488</v>
+        <v>276.9912454447049</v>
       </c>
       <c r="R16">
-        <v>226.0666504929488</v>
+        <v>2492.921209002344</v>
       </c>
       <c r="S16">
-        <v>0.004777578497059162</v>
+        <v>0.005734226644084517</v>
       </c>
       <c r="T16">
-        <v>0.004777578497059162</v>
+        <v>0.005734226644084516</v>
       </c>
     </row>
   </sheetData>
